--- a/DungeonShooting_Godot/excel/BuffPropBase.xlsx
+++ b/DungeonShooting_Godot/excel/BuffPropBase.xlsx
@@ -4,27 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26235" windowHeight="13620"/>
+    <workbookView windowWidth="29400" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -124,7 +111,7 @@
     <t>prop0005</t>
   </si>
   <si>
-    <t>"Damage":[2,0.2]</t>
+    <t>"BulletDamage":[2,0.2]</t>
   </si>
   <si>
     <t>0006</t>
@@ -187,7 +174,7 @@
   <si>
     <t>"BulletCount":[2,1],
 "BulletDeviationAngle":[-8,8],
-"Damage":[2,-0.35],
+"BulletDamage":[2,-0.35],
 "BulletRepel":[2,-0.35],
 "RandomBulletSpeed":[-0.05,0.05]</t>
   </si>
@@ -327,16 +314,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Damage: 提升伤害buff, 参数‘1’为伤害增加类型: 1:具体伤害, 2:百分比伤害(小数), 参数‘2’为增益伤害值</t>
-    </r>
+    <t>BulletDamage: 提升伤害buff, 参数‘1’为伤害增加类型: 1:具体伤害, 2:百分比伤害(小数), 参数‘2’为增益伤害值</t>
   </si>
   <si>
     <r>
@@ -1516,14 +1494,14 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.2333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.55" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.7666666666667" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.2307692307692" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.5480769230769" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.7692307692308" style="4" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1842,12 +1820,12 @@
   <dimension ref="B2:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="164.416666666667" customWidth="1"/>
+    <col min="2" max="2" width="164.413461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
@@ -1956,7 +1934,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/BuffPropBase.xlsx
+++ b/DungeonShooting_Godot/excel/BuffPropBase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="14040"/>
+    <workbookView windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t>$ActivityBase</t>
   </si>
   <si>
-    <t>{string:[float]}*</t>
+    <t>{string:[object]}*</t>
   </si>
   <si>
     <t>0001</t>
@@ -1489,12 +1489,12 @@
   <sheetPr/>
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
